--- a/sieuthi/vandon.xlsx
+++ b/sieuthi/vandon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Mã vận đơn</t>
   </si>
@@ -56,60 +56,33 @@
     <t>Số lượng kiện hàng</t>
   </si>
   <si>
-    <t>VD1</t>
-  </si>
-  <si>
-    <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>DH1</t>
-  </si>
-  <si>
-    <t>Mô tả đơn hàng 1</t>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>VD3</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
+    <t>DH3</t>
+  </si>
+  <si>
+    <t>Mô tả đơn hàng 3</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
   </si>
   <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>TP.HCM</t>
-  </si>
-  <si>
     <t>Đang vận chuyển</t>
   </si>
   <si>
-    <t>VD2</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>DH2</t>
-  </si>
-  <si>
-    <t>Mô tả đơn hàng 2</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Đã giao hàng</t>
-  </si>
-  <si>
-    <t>VD3</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>DH3</t>
-  </si>
-  <si>
-    <t>Mô tả đơn hàng 3</t>
-  </si>
-  <si>
     <t>VD4</t>
   </si>
   <si>
@@ -128,16 +101,7 @@
     <t>Cần Thơ</t>
   </si>
   <si>
-    <t>VD5</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>DH5</t>
-  </si>
-  <si>
-    <t>Mô tả đơn hàng 5</t>
+    <t>Đã  hàng</t>
   </si>
 </sst>
 </file>
@@ -476,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,55 +496,61 @@
       <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="C2" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0">
+        <v>11</v>
+      </c>
       <c r="J2" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K2" s="0">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="L2" s="0">
+        <v>11</v>
+      </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -597,25 +567,25 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
@@ -627,76 +597,6 @@
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0">
         <v>0</v>
       </c>
     </row>
